--- a/input/tier1outcome.xlsx
+++ b/input/tier1outcome.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="930" yWindow="0" windowWidth="17580" windowHeight="12120"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="17580" windowHeight="12120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -215,9 +215,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:shade val="65000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -322,7 +320,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -382,7 +379,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -396,9 +393,7 @@
               <c:idx val="0"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -476,7 +471,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -550,9 +544,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:tint val="65000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -566,9 +558,7 @@
               <c:idx val="0"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -646,7 +636,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -712,11 +701,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="333479664"/>
-        <c:axId val="333479272"/>
+        <c:axId val="305174376"/>
+        <c:axId val="305174760"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="333479664"/>
+        <c:axId val="305174376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -753,14 +742,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="333479272"/>
+        <c:crossAx val="305174760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="years"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="333479272"/>
+        <c:axId val="305174760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="9"/>
@@ -797,7 +786,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="333479664"/>
+        <c:crossAx val="305174376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -856,12 +845,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1411,15 +1395,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1444,7 +1428,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Aspect">
+    <a:clrScheme name="MS Colors">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1458,28 +1442,28 @@
         <a:srgbClr val="E3DED1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="F07F09"/>
+        <a:srgbClr val="1075A6"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="9F2936"/>
+        <a:srgbClr val="E6C061"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="1B587C"/>
+        <a:srgbClr val="87C6D5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="4E8542"/>
+        <a:srgbClr val="D9593C"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="604878"/>
+        <a:srgbClr val="3E9F58"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="C19859"/>
+        <a:srgbClr val="622946"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="6B9F25"/>
+        <a:srgbClr val="96D36E"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="B26B02"/>
+        <a:srgbClr val="E9787D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -1707,7 +1691,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
